--- a/study/demo/openpyxl/test_create_workbook.xlsx
+++ b/study/demo/openpyxl/test_create_workbook.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet-3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet-2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hello" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,13 +18,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="24"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,8 +52,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -415,14 +420,117 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="70" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>hello world</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="70" customHeight="1">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="70" customHeight="1">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="70" customHeight="1">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>合计</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>SUM(E2:E4)</f>
+        <v/>
+      </c>
+      <c r="F5">
+        <f>SUM(F2:F4)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -443,22 +551,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>